--- a/public/files/template/kepegawaian/bukupenjagaan_pangkat.xlsx
+++ b/public/files/template/kepegawaian/bukupenjagaan_pangkat.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>TAHUN [b.tahun]</t>
   </si>
@@ -53,12 +53,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>DAFTAR BUKU PENJAGAAN PANGKAT</t>
-  </si>
-  <si>
-    <t>Nama Pegawai / Tempat Tanggal Lahir / NIP</t>
-  </si>
-  <si>
     <t>Pangkat / Gol. Ruang</t>
   </si>
   <si>
@@ -125,10 +119,31 @@
     <t>[a.septemberth_5]</t>
   </si>
   <si>
-    <t>September</t>
-  </si>
-  <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>NIP</t>
+  </si>
+  <si>
+    <t>Tempat, Tanggal Lahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama Pegawai </t>
+  </si>
+  <si>
+    <t>[a.nip_nit]</t>
+  </si>
+  <si>
+    <t>[a.tmpt_tgl_lahir]</t>
+  </si>
+  <si>
+    <t>Kenaikan Pangkat Berkala</t>
+  </si>
+  <si>
+    <t>KENAIKAN PANGKAT BERKALA</t>
   </si>
 </sst>
 </file>
@@ -222,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,25 +272,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -615,274 +633,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="F9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="C12" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D12" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
+      <c r="E12" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="F12" s="12">
         <v>6</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="G12" s="12">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="H12" s="12">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="I12" s="12">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="J12" s="12">
+        <v>10</v>
+      </c>
+      <c r="K12" s="12">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="L12" s="12">
         <v>12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="M12" s="12">
         <v>13</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
+      <c r="N12" s="12">
+        <v>14</v>
+      </c>
+      <c r="O12" s="12">
+        <v>15</v>
+      </c>
+      <c r="P12" s="12">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="s">
+      <c r="H13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9">
-        <v>7</v>
-      </c>
-      <c r="H11" s="9">
-        <v>8</v>
-      </c>
-      <c r="I11" s="9">
-        <v>9</v>
-      </c>
-      <c r="J11" s="9">
-        <v>10</v>
-      </c>
-      <c r="K11" s="9">
-        <v>11</v>
-      </c>
-      <c r="L11" s="9">
-        <v>12</v>
-      </c>
-      <c r="M11" s="9">
-        <v>13</v>
-      </c>
-      <c r="N11" s="9">
-        <v>14</v>
-      </c>
-      <c r="O11" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="P13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="18"/>
+      <c r="Q13" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+  <mergeCells count="18">
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
